--- a/data/trans_dic/P44_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P44_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra en situación de desempleo debido a la COVID-19</t>
+          <t>Población que se encuentra en situación de desempleo debido a la COVID-19 (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,12 +681,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>56,92%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>48,78%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -676,42 +701,57 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>36,49%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>40,18%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>36,1%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>32,46%</t>
+          <t>7,9%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>43,91%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>43,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>29,99%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>20,1%</t>
+          <t>9,19%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4,2%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,83%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,96%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,56; 86,74</t>
+          <t>3,2; 28,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 20,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,23; 71,06</t>
+          <t>0,0; 19,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,89; 73,95</t>
+          <t>3,55; 24,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,35; 70,38</t>
+          <t>2,51; 27,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,02; 71,11</t>
+          <t>2,17; 19,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,39; 70,12</t>
+          <t>0,0; 16,42</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,28; 71,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,51; 63,26</t>
+          <t>5,53; 20,82</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,61; 49,99</t>
+          <t>3,8; 19,34</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,13; 11,84</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 9,58</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 11,37</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>35,03%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>42,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>40,83%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>42,45%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>42,69%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>37,36%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>38,23%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>32,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>39,82%</t>
+          <t>13,78%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>38,18%</t>
+          <t>11,39%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>5,59%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>5,19%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,7; 77,77</t>
+          <t>0,0; 49,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,23</t>
+          <t>0,0; 12,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,05; 64,98</t>
+          <t>0,0; 10,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 85,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,02; 61,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,25; 62,05</t>
+          <t>6,14; 24,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,51; 65,81</t>
+          <t>9,87; 29,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,67; 57,28</t>
+          <t>3,57; 20,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,51; 61,11</t>
+          <t>4,85; 24,09</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,24; 47,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>23,82; 58,81</t>
+          <t>6,13; 29,95</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,02; 56,54</t>
+          <t>6,02; 18,41</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>2,34; 11,59</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>2,09; 11,09</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>44,76%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>30,82%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>42,67%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>26,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,43%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>34,28%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>28,53%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>27,59%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>2,69%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,56%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,97%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,73%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,96; 67,4</t>
+          <t>0,0; 13,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,44; 61,28</t>
+          <t>0,0; 10,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,65; 74,85</t>
+          <t>0,0; 11,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,49</t>
+          <t>0,0; 12,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,78; 44,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,2; 44,59</t>
+          <t>0,72; 6,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,65; 38,37</t>
+          <t>0,77; 7,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,42; 36,92</t>
+          <t>0,0; 6,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,02; 47,97</t>
+          <t>0,0; 5,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,93; 45,95</t>
+          <t>0,0; 10,82</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,5; 49,4</t>
+          <t>1,09; 6,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,33; 35,19</t>
+          <t>0,63; 6,4</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,65; 6,48</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 5,5</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,17</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>47,81%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>45,39%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>28,25%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>26,17%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>22,84%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,46%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>36,82%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>30,91%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>22,41%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>23,0%</t>
+          <t>4,57%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>3,27%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>3,15%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>1,54%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>23,46; 75,77</t>
+          <t>2,39; 13,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,49; 76,27</t>
+          <t>1,27; 12,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 80,87</t>
+          <t>0,0; 6,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,35</t>
+          <t>0,0; 6,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,86; 48,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,62; 42,29</t>
+          <t>3,18; 13,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,3; 45,32</t>
+          <t>1,07; 10,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,42; 40,43</t>
+          <t>1,92; 11,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,84; 50,07</t>
+          <t>1,9; 10,97</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,83; 45,72</t>
+          <t>0,8; 8,3</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,26; 39,54</t>
+          <t>3,88; 11,5</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,63; 40,64</t>
+          <t>2,23; 8,08</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 6,68</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1,18; 6,49</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>0,41; 4,47</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>18,67%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>3,2%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,88%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1,12%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>2,6%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,27; 35,42</t>
+          <t>0,0; 6,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,91; 40,4</t>
+          <t>0,0; 6,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,01; 41,12</t>
+          <t>0,0; 6,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,3; 40,85</t>
+          <t>1,61; 14,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,5</t>
+          <t>1,56; 15,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,27</t>
+          <t>0,0; 11,97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,12; 29,6</t>
+          <t>0,0; 13,49</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,37; 31,92</t>
+          <t>0,0; 12,59</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,47; 24,29</t>
+          <t>0,78; 7,69</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,64; 25,28</t>
+          <t>0,82; 7,98</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,68</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,64</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0,7; 7,0</t>
         </is>
       </c>
     </row>
@@ -1356,22 +1531,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1386,12 +1561,12 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1406,12 +1581,27 @@
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1634,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1464,12 +1654,12 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1478,6 +1668,21 @@
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>36,7%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>26,64%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>31,53%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>31,28%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>27,03%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>25,33%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>33,66%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>29,3%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>26,89%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>22,46%</t>
+          <t>5,14%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,91%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1,25%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>23,31; 53,88</t>
+          <t>3,35; 13,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,15; 41,68</t>
+          <t>1,64; 5,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,44; 42,79</t>
+          <t>0,3; 3,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,68; 33,02</t>
+          <t>0,0; 2,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>23,34; 40,19</t>
+          <t>0,0; 2,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,36; 39,6</t>
+          <t>4,31; 9,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,04; 37,12</t>
+          <t>4,53; 9,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16,64; 35,2</t>
+          <t>2,62; 7,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>26,32; 42,55</t>
+          <t>2,55; 7,22</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>21,91; 36,89</t>
+          <t>0,71; 3,78</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>19,15; 36,04</t>
+          <t>4,55; 10,09</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>15,66; 30,16</t>
+          <t>3,54; 6,9</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1,81; 4,45</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1,56; 4,02</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 2,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra en situación de desempleo debido a la COVID-19 (tasa de respuesta: 99,97%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11049</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7200</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5632</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>12424</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>14956</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>9488</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>7071</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>23474</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>22156</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>9488</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>7071</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>5632</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2760; 24391</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21807</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 28843</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4175; 29095</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3360; 37354</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2611; 23204</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20122</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>11256; 42402</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9147; 46607</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2561; 26731</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0; 23967</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0; 32756</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19619</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6214</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2863</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>17597</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>31820</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>12239</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>14562</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>37215</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>38034</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>15102</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>14562</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 68256</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 21853</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14587</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>8190; 32855</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>16294; 49407</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4524; 26233</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6130; 30433</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>16573; 80916</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>20102; 61475</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>6326; 31301</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>5870; 31109</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5689</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4067</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5112</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3051</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5468</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>7397</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3698</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>3621</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>7277</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>11156</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>11464</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>8810</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>6672</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>7277</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 18452</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16420</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16117</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17525</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1559; 15017</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2040; 19998</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12671</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 11857</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 25934</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3887; 24116</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2680; 27286</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2224; 22287</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1758; 18582</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0; 25895</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>10186</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>9296</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2119</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1900</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>14148</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>9234</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>9225</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>8468</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>6366</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>24335</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>18531</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>11344</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>10368</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>6366</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3901; 22862</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2365; 23016</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 10568</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 9494</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6089; 25666</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2338; 23021</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3570; 20474</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>3271; 18921</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1700; 17661</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>13768; 40785</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>9040; 32719</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>4135; 23184</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>3870; 21341</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1692; 18508</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1831</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2051</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5701</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>6771</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2428</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>5525</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>7531</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>8752</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>2428</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>7576</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 9069</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 9752</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 10162</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1667; 15424</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1811; 18470</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 11230</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 12497</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 17252</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1894; 18628</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2234; 21847</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8306</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0; 10021</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>2031; 20430</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>48374</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>28758</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>10094</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>4951</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>7683</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>55338</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>70179</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>36639</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>36149</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>19167</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>103712</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>98937</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>46733</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>41100</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>26850</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>25297; 104117</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>14615; 50562</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2306; 24489</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>0; 18205</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 29537</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>37377; 80335</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>46869; 102727</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>22047; 59276</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>21059; 59528</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>7860; 41633</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>73850; 163725</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>68148; 132905</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>29078; 71382</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>25257; 64823</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>12525; 54368</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>